--- a/evaluation_framework/evaluation/result_analyzer/excel/bug/1st_original_data/bug_full_data_2.5h.xlsx
+++ b/evaluation_framework/evaluation/result_analyzer/excel/bug/1st_original_data/bug_full_data_2.5h.xlsx
@@ -1597,13 +1597,13 @@
         <v>1</v>
       </c>
       <c r="DC2" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="DD2" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="DE2" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="DF2" t="n">
         <v>1</v>
@@ -2108,13 +2108,13 @@
         <v>2</v>
       </c>
       <c r="DC3" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="DD3" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="DE3" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="DF3" t="n">
         <v>1</v>
@@ -2619,13 +2619,13 @@
         <v>2</v>
       </c>
       <c r="DC4" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="DD4" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="DE4" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="DF4" t="n">
         <v>1</v>
@@ -3130,13 +3130,13 @@
         <v>2</v>
       </c>
       <c r="DC5" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="DD5" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="DE5" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="DF5" t="n">
         <v>1</v>
@@ -3641,13 +3641,13 @@
         <v>2</v>
       </c>
       <c r="DC6" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="DD6" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="DE6" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="DF6" t="n">
         <v>1</v>
@@ -4152,13 +4152,13 @@
         <v>4</v>
       </c>
       <c r="DC7" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="DD7" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="DE7" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="DF7" t="n">
         <v>1</v>
@@ -4663,13 +4663,13 @@
         <v>2</v>
       </c>
       <c r="DC8" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="DD8" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="DE8" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="DF8" t="n">
         <v>1</v>
@@ -5174,13 +5174,13 @@
         <v>2</v>
       </c>
       <c r="DC9" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="DD9" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="DE9" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="DF9" t="n">
         <v>1</v>
@@ -5685,13 +5685,13 @@
         <v>4</v>
       </c>
       <c r="DC10" t="n">
+        <v>5</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>9</v>
+      </c>
+      <c r="DE10" t="n">
         <v>21</v>
-      </c>
-      <c r="DD10" t="n">
-        <v>25</v>
-      </c>
-      <c r="DE10" t="n">
-        <v>37</v>
       </c>
       <c r="DF10" t="n">
         <v>1</v>
@@ -22037,13 +22037,13 @@
         <v>4</v>
       </c>
       <c r="DC42" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="DD42" t="n">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="DE42" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="DF42" t="n">
         <v>0</v>
@@ -22548,13 +22548,13 @@
         <v>3</v>
       </c>
       <c r="DC43" t="n">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="DD43" t="n">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="DE43" t="n">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="DF43" t="n">
         <v>0</v>
@@ -23059,13 +23059,13 @@
         <v>4</v>
       </c>
       <c r="DC44" t="n">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="DD44" t="n">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="DE44" t="n">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="DF44" t="n">
         <v>0</v>
@@ -23570,13 +23570,13 @@
         <v>2</v>
       </c>
       <c r="DC45" t="n">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="DD45" t="n">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="DE45" t="n">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="DF45" t="n">
         <v>1</v>
@@ -24081,13 +24081,13 @@
         <v>1</v>
       </c>
       <c r="DC46" t="n">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="DD46" t="n">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="DE46" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="DF46" t="n">
         <v>0</v>
@@ -24592,13 +24592,13 @@
         <v>2</v>
       </c>
       <c r="DC47" t="n">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="DD47" t="n">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="DE47" t="n">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="DF47" t="n">
         <v>0</v>
@@ -25103,13 +25103,13 @@
         <v>2</v>
       </c>
       <c r="DC48" t="n">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="DD48" t="n">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="DE48" t="n">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="DF48" t="n">
         <v>1</v>
@@ -25614,13 +25614,13 @@
         <v>2</v>
       </c>
       <c r="DC49" t="n">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="DD49" t="n">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="DE49" t="n">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="DF49" t="n">
         <v>0</v>
@@ -26125,13 +26125,13 @@
         <v>1</v>
       </c>
       <c r="DC50" t="n">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="DD50" t="n">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="DE50" t="n">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="DF50" t="n">
         <v>0</v>
@@ -26636,13 +26636,13 @@
         <v>3</v>
       </c>
       <c r="DC51" t="n">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="DD51" t="n">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="DE51" t="n">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="DF51" t="n">
         <v>0</v>
@@ -32257,13 +32257,13 @@
         <v>5</v>
       </c>
       <c r="DC62" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="DD62" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="DE62" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="DF62" t="n">
         <v>1</v>
@@ -33279,13 +33279,13 @@
         <v>2</v>
       </c>
       <c r="DC64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DD64" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="DE64" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="DF64" t="n">
         <v>2</v>
@@ -34301,13 +34301,13 @@
         <v>3</v>
       </c>
       <c r="DC66" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="DD66" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="DE66" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="DF66" t="n">
         <v>1</v>
@@ -34812,13 +34812,13 @@
         <v>5</v>
       </c>
       <c r="DC67" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="DD67" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="DE67" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="DF67" t="n">
         <v>1</v>
@@ -35323,13 +35323,13 @@
         <v>4</v>
       </c>
       <c r="DC68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DD68" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DE68" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="DF68" t="n">
         <v>1</v>
@@ -35834,13 +35834,13 @@
         <v>2</v>
       </c>
       <c r="DC69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DD69" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="DE69" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="DF69" t="n">
         <v>0</v>
@@ -36856,13 +36856,13 @@
         <v>5</v>
       </c>
       <c r="DC71" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="DD71" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DE71" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="DF71" t="n">
         <v>2</v>
